--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/1.5 Plantilla_Iluminacion_residencial.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/1.5 Plantilla_Iluminacion_residencial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\Para MASIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778F8D09-CA05-43FB-8318-04FAA00BAE5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A097A1B7-B46B-49C5-B4B2-D8321D1025C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{38F91648-8E81-4530-8820-7CE20EF243A4}"/>
   </bookViews>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Año</t>
   </si>
@@ -798,7 +798,7 @@
   <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +867,7 @@
         <v>2016</v>
       </c>
       <c r="B3" s="8">
-        <f>VLOOKUP(C3,Tabla_lampara,2,)</f>
+        <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_lampara,2,)</f>
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -883,7 +883,7 @@
         <v>780000</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G66" si="0">VLOOKUP(H3,Tabla_Mes,2,)</f>
+        <f t="shared" ref="G3:G66" si="1">VLOOKUP(H3,Tabla_Mes,2,)</f>
         <v>4</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -895,7 +895,7 @@
         <v>2017</v>
       </c>
       <c r="B4" s="21">
-        <f>VLOOKUP(C4,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -911,7 +911,7 @@
         <v>125000</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -923,7 +923,7 @@
         <v>2017</v>
       </c>
       <c r="B5" s="22">
-        <f>VLOOKUP(C5,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -939,7 +939,7 @@
         <v>120000</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -951,7 +951,7 @@
         <v>2018</v>
       </c>
       <c r="B6" s="22">
-        <f>VLOOKUP(C6,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -967,7 +967,7 @@
         <v>150000</v>
       </c>
       <c r="G6" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H6" s="22" t="s">
@@ -975,25 +975,37 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="22" t="e">
-        <f>VLOOKUP(C7,Tabla_lampara,2,)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H7" s="3"/>
+      <c r="A7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="17">
+        <v>839</v>
+      </c>
+      <c r="E7" s="17">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15">
+        <v>155000</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="22" t="e">
-        <f>VLOOKUP(C8,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C8" s="22"/>
@@ -1001,7 +1013,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="15"/>
       <c r="G8" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H8" s="3"/>
@@ -1009,7 +1021,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="22" t="e">
-        <f>VLOOKUP(C9,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C9" s="22"/>
@@ -1017,7 +1029,7 @@
       <c r="E9" s="17"/>
       <c r="F9" s="15"/>
       <c r="G9" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H9" s="3"/>
@@ -1025,7 +1037,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="22" t="e">
-        <f>VLOOKUP(C10,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C10" s="22"/>
@@ -1033,7 +1045,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="15"/>
       <c r="G10" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H10" s="3"/>
@@ -1041,7 +1053,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="22" t="e">
-        <f>VLOOKUP(C11,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C11" s="22"/>
@@ -1049,7 +1061,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="15"/>
       <c r="G11" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H11" s="3"/>
@@ -1057,7 +1069,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="22" t="e">
-        <f>VLOOKUP(C12,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C12" s="22"/>
@@ -1065,7 +1077,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="15"/>
       <c r="G12" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H12" s="3"/>
@@ -1073,7 +1085,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="22" t="e">
-        <f>VLOOKUP(C13,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C13" s="22"/>
@@ -1081,7 +1093,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="15"/>
       <c r="G13" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H13" s="3"/>
@@ -1089,7 +1101,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="22" t="e">
-        <f>VLOOKUP(C14,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C14" s="22"/>
@@ -1097,7 +1109,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="15"/>
       <c r="G14" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H14" s="3"/>
@@ -1105,7 +1117,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="22" t="e">
-        <f>VLOOKUP(C15,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C15" s="22"/>
@@ -1113,7 +1125,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="15"/>
       <c r="G15" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H15" s="3"/>
@@ -1121,7 +1133,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="22" t="e">
-        <f>VLOOKUP(C16,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C16" s="22"/>
@@ -1129,7 +1141,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="15"/>
       <c r="G16" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H16" s="3"/>
@@ -1137,7 +1149,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="22" t="e">
-        <f>VLOOKUP(C17,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C17" s="22"/>
@@ -1145,7 +1157,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="15"/>
       <c r="G17" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H17" s="3"/>
@@ -1153,7 +1165,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="22" t="e">
-        <f>VLOOKUP(C18,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C18" s="22"/>
@@ -1161,7 +1173,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="15"/>
       <c r="G18" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H18" s="3"/>
@@ -1169,7 +1181,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="22" t="e">
-        <f>VLOOKUP(C19,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C19" s="22"/>
@@ -1177,7 +1189,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="15"/>
       <c r="G19" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H19" s="3"/>
@@ -1185,7 +1197,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="22" t="e">
-        <f>VLOOKUP(C20,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C20" s="22"/>
@@ -1193,7 +1205,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="15"/>
       <c r="G20" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H20" s="3"/>
@@ -1201,7 +1213,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="22" t="e">
-        <f>VLOOKUP(C21,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C21" s="22"/>
@@ -1209,7 +1221,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="15"/>
       <c r="G21" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H21" s="3"/>
@@ -1217,7 +1229,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="22" t="e">
-        <f>VLOOKUP(C22,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C22" s="22"/>
@@ -1225,7 +1237,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="15"/>
       <c r="G22" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H22" s="3"/>
@@ -1233,7 +1245,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="22" t="e">
-        <f>VLOOKUP(C23,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C23" s="22"/>
@@ -1241,7 +1253,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="15"/>
       <c r="G23" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H23" s="3"/>
@@ -1249,7 +1261,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="22" t="e">
-        <f>VLOOKUP(C24,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C24" s="22"/>
@@ -1257,7 +1269,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="15"/>
       <c r="G24" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H24" s="3"/>
@@ -1265,7 +1277,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="22" t="e">
-        <f>VLOOKUP(C25,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C25" s="22"/>
@@ -1273,7 +1285,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="15"/>
       <c r="G25" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H25" s="3"/>
@@ -1281,7 +1293,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="22" t="e">
-        <f>VLOOKUP(C26,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C26" s="22"/>
@@ -1289,7 +1301,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="15"/>
       <c r="G26" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H26" s="3"/>
@@ -1297,7 +1309,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="22" t="e">
-        <f>VLOOKUP(C27,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C27" s="22"/>
@@ -1305,7 +1317,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="15"/>
       <c r="G27" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H27" s="3"/>
@@ -1313,7 +1325,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="22" t="e">
-        <f>VLOOKUP(C28,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C28" s="22"/>
@@ -1321,7 +1333,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="15"/>
       <c r="G28" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H28" s="3"/>
@@ -1329,7 +1341,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="22" t="e">
-        <f>VLOOKUP(C29,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C29" s="22"/>
@@ -1337,7 +1349,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="15"/>
       <c r="G29" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H29" s="3"/>
@@ -1345,7 +1357,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="22" t="e">
-        <f>VLOOKUP(C30,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C30" s="22"/>
@@ -1353,7 +1365,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="15"/>
       <c r="G30" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H30" s="3"/>
@@ -1361,7 +1373,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="22" t="e">
-        <f>VLOOKUP(C31,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C31" s="22"/>
@@ -1369,7 +1381,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="15"/>
       <c r="G31" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H31" s="3"/>
@@ -1377,7 +1389,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="22" t="e">
-        <f>VLOOKUP(C32,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C32" s="22"/>
@@ -1385,7 +1397,7 @@
       <c r="E32" s="17"/>
       <c r="F32" s="15"/>
       <c r="G32" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H32" s="3"/>
@@ -1393,7 +1405,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="22" t="e">
-        <f>VLOOKUP(C33,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C33" s="22"/>
@@ -1401,7 +1413,7 @@
       <c r="E33" s="17"/>
       <c r="F33" s="15"/>
       <c r="G33" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H33" s="3"/>
@@ -1409,7 +1421,7 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="22" t="e">
-        <f>VLOOKUP(C34,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C34" s="22"/>
@@ -1417,7 +1429,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="15"/>
       <c r="G34" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H34" s="3"/>
@@ -1425,7 +1437,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="22" t="e">
-        <f>VLOOKUP(C35,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C35" s="22"/>
@@ -1433,7 +1445,7 @@
       <c r="E35" s="17"/>
       <c r="F35" s="15"/>
       <c r="G35" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H35" s="3"/>
@@ -1441,7 +1453,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="22" t="e">
-        <f>VLOOKUP(C36,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C36" s="22"/>
@@ -1449,7 +1461,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="15"/>
       <c r="G36" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H36" s="3"/>
@@ -1457,7 +1469,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="22" t="e">
-        <f>VLOOKUP(C37,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C37" s="22"/>
@@ -1465,7 +1477,7 @@
       <c r="E37" s="17"/>
       <c r="F37" s="15"/>
       <c r="G37" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H37" s="3"/>
@@ -1473,7 +1485,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="22" t="e">
-        <f>VLOOKUP(C38,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C38" s="22"/>
@@ -1481,7 +1493,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="15"/>
       <c r="G38" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H38" s="3"/>
@@ -1489,7 +1501,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="22" t="e">
-        <f>VLOOKUP(C39,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C39" s="22"/>
@@ -1497,7 +1509,7 @@
       <c r="E39" s="17"/>
       <c r="F39" s="15"/>
       <c r="G39" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H39" s="3"/>
@@ -1505,7 +1517,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="22" t="e">
-        <f>VLOOKUP(C40,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C40" s="22"/>
@@ -1513,7 +1525,7 @@
       <c r="E40" s="17"/>
       <c r="F40" s="15"/>
       <c r="G40" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H40" s="3"/>
@@ -1521,7 +1533,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="22" t="e">
-        <f>VLOOKUP(C41,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C41" s="22"/>
@@ -1529,7 +1541,7 @@
       <c r="E41" s="17"/>
       <c r="F41" s="15"/>
       <c r="G41" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H41" s="3"/>
@@ -1537,7 +1549,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="22" t="e">
-        <f>VLOOKUP(C42,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C42" s="22"/>
@@ -1545,7 +1557,7 @@
       <c r="E42" s="17"/>
       <c r="F42" s="15"/>
       <c r="G42" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H42" s="3"/>
@@ -1553,7 +1565,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="22" t="e">
-        <f>VLOOKUP(C43,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C43" s="22"/>
@@ -1561,7 +1573,7 @@
       <c r="E43" s="17"/>
       <c r="F43" s="15"/>
       <c r="G43" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H43" s="3"/>
@@ -1569,7 +1581,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="22" t="e">
-        <f>VLOOKUP(C44,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C44" s="22"/>
@@ -1577,7 +1589,7 @@
       <c r="E44" s="17"/>
       <c r="F44" s="15"/>
       <c r="G44" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H44" s="3"/>
@@ -1585,7 +1597,7 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="22" t="e">
-        <f>VLOOKUP(C45,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C45" s="22"/>
@@ -1593,7 +1605,7 @@
       <c r="E45" s="17"/>
       <c r="F45" s="15"/>
       <c r="G45" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H45" s="3"/>
@@ -1601,7 +1613,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="22" t="e">
-        <f>VLOOKUP(C46,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C46" s="22"/>
@@ -1609,7 +1621,7 @@
       <c r="E46" s="17"/>
       <c r="F46" s="15"/>
       <c r="G46" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H46" s="3"/>
@@ -1617,7 +1629,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="22" t="e">
-        <f>VLOOKUP(C47,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C47" s="22"/>
@@ -1625,7 +1637,7 @@
       <c r="E47" s="17"/>
       <c r="F47" s="15"/>
       <c r="G47" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H47" s="3"/>
@@ -1633,7 +1645,7 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="22" t="e">
-        <f>VLOOKUP(C48,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C48" s="22"/>
@@ -1641,7 +1653,7 @@
       <c r="E48" s="17"/>
       <c r="F48" s="15"/>
       <c r="G48" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H48" s="3"/>
@@ -1649,7 +1661,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="22" t="e">
-        <f>VLOOKUP(C49,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C49" s="22"/>
@@ -1657,7 +1669,7 @@
       <c r="E49" s="17"/>
       <c r="F49" s="15"/>
       <c r="G49" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H49" s="3"/>
@@ -1665,7 +1677,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="22" t="e">
-        <f>VLOOKUP(C50,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C50" s="22"/>
@@ -1673,7 +1685,7 @@
       <c r="E50" s="17"/>
       <c r="F50" s="15"/>
       <c r="G50" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H50" s="3"/>
@@ -1681,7 +1693,7 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="22" t="e">
-        <f>VLOOKUP(C51,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C51" s="22"/>
@@ -1689,7 +1701,7 @@
       <c r="E51" s="17"/>
       <c r="F51" s="15"/>
       <c r="G51" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H51" s="3"/>
@@ -1697,7 +1709,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="22" t="e">
-        <f>VLOOKUP(C52,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C52" s="22"/>
@@ -1705,7 +1717,7 @@
       <c r="E52" s="17"/>
       <c r="F52" s="15"/>
       <c r="G52" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H52" s="3"/>
@@ -1713,7 +1725,7 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="22" t="e">
-        <f>VLOOKUP(C53,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C53" s="22"/>
@@ -1721,7 +1733,7 @@
       <c r="E53" s="17"/>
       <c r="F53" s="15"/>
       <c r="G53" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H53" s="3"/>
@@ -1729,7 +1741,7 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="22" t="e">
-        <f>VLOOKUP(C54,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C54" s="22"/>
@@ -1737,7 +1749,7 @@
       <c r="E54" s="17"/>
       <c r="F54" s="15"/>
       <c r="G54" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H54" s="3"/>
@@ -1745,7 +1757,7 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="22" t="e">
-        <f>VLOOKUP(C55,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C55" s="22"/>
@@ -1753,7 +1765,7 @@
       <c r="E55" s="17"/>
       <c r="F55" s="15"/>
       <c r="G55" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H55" s="3"/>
@@ -1761,7 +1773,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="22" t="e">
-        <f>VLOOKUP(C56,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C56" s="22"/>
@@ -1769,7 +1781,7 @@
       <c r="E56" s="17"/>
       <c r="F56" s="15"/>
       <c r="G56" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H56" s="3"/>
@@ -1777,7 +1789,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="22" t="e">
-        <f>VLOOKUP(C57,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C57" s="22"/>
@@ -1785,7 +1797,7 @@
       <c r="E57" s="17"/>
       <c r="F57" s="15"/>
       <c r="G57" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H57" s="3"/>
@@ -1793,7 +1805,7 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="22" t="e">
-        <f>VLOOKUP(C58,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C58" s="22"/>
@@ -1801,7 +1813,7 @@
       <c r="E58" s="17"/>
       <c r="F58" s="15"/>
       <c r="G58" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H58" s="3"/>
@@ -1809,7 +1821,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="22" t="e">
-        <f>VLOOKUP(C59,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C59" s="22"/>
@@ -1817,7 +1829,7 @@
       <c r="E59" s="17"/>
       <c r="F59" s="15"/>
       <c r="G59" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H59" s="3"/>
@@ -1825,7 +1837,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="22" t="e">
-        <f>VLOOKUP(C60,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C60" s="22"/>
@@ -1833,7 +1845,7 @@
       <c r="E60" s="17"/>
       <c r="F60" s="15"/>
       <c r="G60" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H60" s="3"/>
@@ -1841,7 +1853,7 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="22" t="e">
-        <f>VLOOKUP(C61,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C61" s="22"/>
@@ -1849,7 +1861,7 @@
       <c r="E61" s="17"/>
       <c r="F61" s="15"/>
       <c r="G61" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H61" s="3"/>
@@ -1857,7 +1869,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="22" t="e">
-        <f>VLOOKUP(C62,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C62" s="22"/>
@@ -1865,7 +1877,7 @@
       <c r="E62" s="17"/>
       <c r="F62" s="15"/>
       <c r="G62" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H62" s="3"/>
@@ -1873,7 +1885,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="22" t="e">
-        <f>VLOOKUP(C63,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C63" s="22"/>
@@ -1881,7 +1893,7 @@
       <c r="E63" s="17"/>
       <c r="F63" s="15"/>
       <c r="G63" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H63" s="3"/>
@@ -1889,7 +1901,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="22" t="e">
-        <f>VLOOKUP(C64,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C64" s="22"/>
@@ -1897,7 +1909,7 @@
       <c r="E64" s="17"/>
       <c r="F64" s="15"/>
       <c r="G64" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H64" s="3"/>
@@ -1905,7 +1917,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="22" t="e">
-        <f>VLOOKUP(C65,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C65" s="22"/>
@@ -1913,7 +1925,7 @@
       <c r="E65" s="17"/>
       <c r="F65" s="15"/>
       <c r="G65" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H65" s="3"/>
@@ -1921,7 +1933,7 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="22" t="e">
-        <f>VLOOKUP(C66,Tabla_lampara,2,)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="C66" s="22"/>
@@ -1929,7 +1941,7 @@
       <c r="E66" s="17"/>
       <c r="F66" s="15"/>
       <c r="G66" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H66" s="3"/>
@@ -1937,7 +1949,7 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="22" t="e">
-        <f>VLOOKUP(C67,Tabla_lampara,2,)</f>
+        <f t="shared" ref="B67:B130" si="2">VLOOKUP(C67,Tabla_lampara,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C67" s="22"/>
@@ -1945,7 +1957,7 @@
       <c r="E67" s="17"/>
       <c r="F67" s="15"/>
       <c r="G67" s="3" t="e">
-        <f t="shared" ref="G67:G130" si="1">VLOOKUP(H67,Tabla_Mes,2,)</f>
+        <f t="shared" ref="G67:G130" si="3">VLOOKUP(H67,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="H67" s="3"/>
@@ -1953,7 +1965,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="22" t="e">
-        <f>VLOOKUP(C68,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C68" s="22"/>
@@ -1961,7 +1973,7 @@
       <c r="E68" s="17"/>
       <c r="F68" s="15"/>
       <c r="G68" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H68" s="3"/>
@@ -1969,7 +1981,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="22" t="e">
-        <f>VLOOKUP(C69,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C69" s="22"/>
@@ -1977,7 +1989,7 @@
       <c r="E69" s="17"/>
       <c r="F69" s="15"/>
       <c r="G69" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H69" s="3"/>
@@ -1985,7 +1997,7 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="22" t="e">
-        <f>VLOOKUP(C70,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C70" s="22"/>
@@ -1993,7 +2005,7 @@
       <c r="E70" s="17"/>
       <c r="F70" s="15"/>
       <c r="G70" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H70" s="3"/>
@@ -2001,7 +2013,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="22" t="e">
-        <f>VLOOKUP(C71,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C71" s="22"/>
@@ -2009,7 +2021,7 @@
       <c r="E71" s="17"/>
       <c r="F71" s="15"/>
       <c r="G71" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H71" s="3"/>
@@ -2017,7 +2029,7 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="22" t="e">
-        <f>VLOOKUP(C72,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C72" s="22"/>
@@ -2025,7 +2037,7 @@
       <c r="E72" s="17"/>
       <c r="F72" s="15"/>
       <c r="G72" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H72" s="3"/>
@@ -2033,7 +2045,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="22" t="e">
-        <f>VLOOKUP(C73,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C73" s="22"/>
@@ -2041,7 +2053,7 @@
       <c r="E73" s="17"/>
       <c r="F73" s="15"/>
       <c r="G73" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H73" s="3"/>
@@ -2049,7 +2061,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="22" t="e">
-        <f>VLOOKUP(C74,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C74" s="22"/>
@@ -2057,7 +2069,7 @@
       <c r="E74" s="17"/>
       <c r="F74" s="15"/>
       <c r="G74" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H74" s="3"/>
@@ -2065,7 +2077,7 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="22" t="e">
-        <f>VLOOKUP(C75,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C75" s="22"/>
@@ -2073,7 +2085,7 @@
       <c r="E75" s="17"/>
       <c r="F75" s="15"/>
       <c r="G75" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H75" s="3"/>
@@ -2081,7 +2093,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="22" t="e">
-        <f>VLOOKUP(C76,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C76" s="22"/>
@@ -2089,7 +2101,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="15"/>
       <c r="G76" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H76" s="3"/>
@@ -2097,7 +2109,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="22" t="e">
-        <f>VLOOKUP(C77,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C77" s="22"/>
@@ -2105,7 +2117,7 @@
       <c r="E77" s="17"/>
       <c r="F77" s="15"/>
       <c r="G77" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H77" s="3"/>
@@ -2113,7 +2125,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="e">
-        <f>VLOOKUP(C78,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C78" s="22"/>
@@ -2121,7 +2133,7 @@
       <c r="E78" s="17"/>
       <c r="F78" s="15"/>
       <c r="G78" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H78" s="3"/>
@@ -2129,7 +2141,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="22" t="e">
-        <f>VLOOKUP(C79,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C79" s="22"/>
@@ -2137,7 +2149,7 @@
       <c r="E79" s="17"/>
       <c r="F79" s="15"/>
       <c r="G79" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H79" s="3"/>
@@ -2145,7 +2157,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="22" t="e">
-        <f>VLOOKUP(C80,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C80" s="22"/>
@@ -2153,7 +2165,7 @@
       <c r="E80" s="17"/>
       <c r="F80" s="15"/>
       <c r="G80" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H80" s="3"/>
@@ -2161,7 +2173,7 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="22" t="e">
-        <f>VLOOKUP(C81,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C81" s="22"/>
@@ -2169,7 +2181,7 @@
       <c r="E81" s="17"/>
       <c r="F81" s="15"/>
       <c r="G81" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H81" s="3"/>
@@ -2177,7 +2189,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="22" t="e">
-        <f>VLOOKUP(C82,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C82" s="22"/>
@@ -2185,7 +2197,7 @@
       <c r="E82" s="17"/>
       <c r="F82" s="15"/>
       <c r="G82" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H82" s="3"/>
@@ -2193,7 +2205,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="22" t="e">
-        <f>VLOOKUP(C83,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C83" s="22"/>
@@ -2201,7 +2213,7 @@
       <c r="E83" s="17"/>
       <c r="F83" s="15"/>
       <c r="G83" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H83" s="3"/>
@@ -2209,7 +2221,7 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="22" t="e">
-        <f>VLOOKUP(C84,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C84" s="22"/>
@@ -2217,7 +2229,7 @@
       <c r="E84" s="17"/>
       <c r="F84" s="15"/>
       <c r="G84" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H84" s="3"/>
@@ -2225,7 +2237,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="22" t="e">
-        <f>VLOOKUP(C85,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C85" s="22"/>
@@ -2233,7 +2245,7 @@
       <c r="E85" s="17"/>
       <c r="F85" s="15"/>
       <c r="G85" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H85" s="3"/>
@@ -2241,7 +2253,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="22" t="e">
-        <f>VLOOKUP(C86,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C86" s="22"/>
@@ -2249,7 +2261,7 @@
       <c r="E86" s="17"/>
       <c r="F86" s="15"/>
       <c r="G86" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H86" s="3"/>
@@ -2257,7 +2269,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="22" t="e">
-        <f>VLOOKUP(C87,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C87" s="22"/>
@@ -2265,7 +2277,7 @@
       <c r="E87" s="17"/>
       <c r="F87" s="15"/>
       <c r="G87" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H87" s="3"/>
@@ -2273,7 +2285,7 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="22" t="e">
-        <f>VLOOKUP(C88,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C88" s="22"/>
@@ -2281,7 +2293,7 @@
       <c r="E88" s="17"/>
       <c r="F88" s="15"/>
       <c r="G88" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H88" s="3"/>
@@ -2289,7 +2301,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="22" t="e">
-        <f>VLOOKUP(C89,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C89" s="22"/>
@@ -2297,7 +2309,7 @@
       <c r="E89" s="17"/>
       <c r="F89" s="15"/>
       <c r="G89" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H89" s="3"/>
@@ -2305,7 +2317,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="22" t="e">
-        <f>VLOOKUP(C90,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C90" s="22"/>
@@ -2313,7 +2325,7 @@
       <c r="E90" s="17"/>
       <c r="F90" s="15"/>
       <c r="G90" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H90" s="3"/>
@@ -2321,7 +2333,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="22" t="e">
-        <f>VLOOKUP(C91,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C91" s="22"/>
@@ -2329,7 +2341,7 @@
       <c r="E91" s="17"/>
       <c r="F91" s="15"/>
       <c r="G91" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H91" s="3"/>
@@ -2337,7 +2349,7 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="22" t="e">
-        <f>VLOOKUP(C92,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C92" s="22"/>
@@ -2345,7 +2357,7 @@
       <c r="E92" s="17"/>
       <c r="F92" s="15"/>
       <c r="G92" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H92" s="3"/>
@@ -2353,7 +2365,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="22" t="e">
-        <f>VLOOKUP(C93,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C93" s="22"/>
@@ -2361,7 +2373,7 @@
       <c r="E93" s="17"/>
       <c r="F93" s="15"/>
       <c r="G93" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H93" s="3"/>
@@ -2369,7 +2381,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="22" t="e">
-        <f>VLOOKUP(C94,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C94" s="22"/>
@@ -2377,7 +2389,7 @@
       <c r="E94" s="17"/>
       <c r="F94" s="15"/>
       <c r="G94" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H94" s="3"/>
@@ -2385,7 +2397,7 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="22" t="e">
-        <f>VLOOKUP(C95,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C95" s="22"/>
@@ -2393,7 +2405,7 @@
       <c r="E95" s="17"/>
       <c r="F95" s="15"/>
       <c r="G95" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H95" s="3"/>
@@ -2401,7 +2413,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="22" t="e">
-        <f>VLOOKUP(C96,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C96" s="22"/>
@@ -2409,7 +2421,7 @@
       <c r="E96" s="17"/>
       <c r="F96" s="15"/>
       <c r="G96" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H96" s="3"/>
@@ -2417,7 +2429,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="22" t="e">
-        <f>VLOOKUP(C97,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C97" s="22"/>
@@ -2425,7 +2437,7 @@
       <c r="E97" s="17"/>
       <c r="F97" s="15"/>
       <c r="G97" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H97" s="3"/>
@@ -2433,7 +2445,7 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="22" t="e">
-        <f>VLOOKUP(C98,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C98" s="22"/>
@@ -2441,7 +2453,7 @@
       <c r="E98" s="17"/>
       <c r="F98" s="15"/>
       <c r="G98" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H98" s="3"/>
@@ -2449,7 +2461,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="22" t="e">
-        <f>VLOOKUP(C99,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C99" s="22"/>
@@ -2457,7 +2469,7 @@
       <c r="E99" s="17"/>
       <c r="F99" s="15"/>
       <c r="G99" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H99" s="3"/>
@@ -2465,7 +2477,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="22" t="e">
-        <f>VLOOKUP(C100,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C100" s="22"/>
@@ -2473,7 +2485,7 @@
       <c r="E100" s="17"/>
       <c r="F100" s="15"/>
       <c r="G100" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H100" s="3"/>
@@ -2481,7 +2493,7 @@
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="22" t="e">
-        <f>VLOOKUP(C101,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C101" s="22"/>
@@ -2489,7 +2501,7 @@
       <c r="E101" s="17"/>
       <c r="F101" s="15"/>
       <c r="G101" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H101" s="3"/>
@@ -2497,7 +2509,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="22" t="e">
-        <f>VLOOKUP(C102,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C102" s="22"/>
@@ -2505,7 +2517,7 @@
       <c r="E102" s="17"/>
       <c r="F102" s="15"/>
       <c r="G102" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H102" s="3"/>
@@ -2513,7 +2525,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="22" t="e">
-        <f>VLOOKUP(C103,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C103" s="22"/>
@@ -2521,7 +2533,7 @@
       <c r="E103" s="17"/>
       <c r="F103" s="15"/>
       <c r="G103" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H103" s="3"/>
@@ -2529,7 +2541,7 @@
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="22" t="e">
-        <f>VLOOKUP(C104,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C104" s="22"/>
@@ -2537,7 +2549,7 @@
       <c r="E104" s="17"/>
       <c r="F104" s="15"/>
       <c r="G104" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H104" s="3"/>
@@ -2545,7 +2557,7 @@
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="22" t="e">
-        <f>VLOOKUP(C105,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C105" s="22"/>
@@ -2553,7 +2565,7 @@
       <c r="E105" s="17"/>
       <c r="F105" s="15"/>
       <c r="G105" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H105" s="3"/>
@@ -2561,7 +2573,7 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="22" t="e">
-        <f>VLOOKUP(C106,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C106" s="22"/>
@@ -2569,7 +2581,7 @@
       <c r="E106" s="17"/>
       <c r="F106" s="15"/>
       <c r="G106" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H106" s="3"/>
@@ -2577,7 +2589,7 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="22" t="e">
-        <f>VLOOKUP(C107,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C107" s="22"/>
@@ -2585,7 +2597,7 @@
       <c r="E107" s="17"/>
       <c r="F107" s="15"/>
       <c r="G107" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H107" s="3"/>
@@ -2593,7 +2605,7 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="22" t="e">
-        <f>VLOOKUP(C108,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C108" s="22"/>
@@ -2601,7 +2613,7 @@
       <c r="E108" s="17"/>
       <c r="F108" s="15"/>
       <c r="G108" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H108" s="3"/>
@@ -2609,7 +2621,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="22" t="e">
-        <f>VLOOKUP(C109,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C109" s="22"/>
@@ -2617,7 +2629,7 @@
       <c r="E109" s="17"/>
       <c r="F109" s="15"/>
       <c r="G109" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H109" s="3"/>
@@ -2625,7 +2637,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="22" t="e">
-        <f>VLOOKUP(C110,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C110" s="22"/>
@@ -2633,7 +2645,7 @@
       <c r="E110" s="17"/>
       <c r="F110" s="15"/>
       <c r="G110" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H110" s="3"/>
@@ -2641,7 +2653,7 @@
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="22" t="e">
-        <f>VLOOKUP(C111,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C111" s="22"/>
@@ -2649,7 +2661,7 @@
       <c r="E111" s="17"/>
       <c r="F111" s="15"/>
       <c r="G111" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H111" s="3"/>
@@ -2657,7 +2669,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="22" t="e">
-        <f>VLOOKUP(C112,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C112" s="22"/>
@@ -2665,7 +2677,7 @@
       <c r="E112" s="17"/>
       <c r="F112" s="15"/>
       <c r="G112" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H112" s="3"/>
@@ -2673,7 +2685,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="22" t="e">
-        <f>VLOOKUP(C113,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C113" s="22"/>
@@ -2681,7 +2693,7 @@
       <c r="E113" s="17"/>
       <c r="F113" s="15"/>
       <c r="G113" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H113" s="3"/>
@@ -2689,7 +2701,7 @@
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="22" t="e">
-        <f>VLOOKUP(C114,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C114" s="22"/>
@@ -2697,7 +2709,7 @@
       <c r="E114" s="17"/>
       <c r="F114" s="15"/>
       <c r="G114" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H114" s="3"/>
@@ -2705,7 +2717,7 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="22" t="e">
-        <f>VLOOKUP(C115,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C115" s="22"/>
@@ -2713,7 +2725,7 @@
       <c r="E115" s="17"/>
       <c r="F115" s="15"/>
       <c r="G115" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H115" s="3"/>
@@ -2721,7 +2733,7 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="22" t="e">
-        <f>VLOOKUP(C116,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C116" s="22"/>
@@ -2729,7 +2741,7 @@
       <c r="E116" s="17"/>
       <c r="F116" s="15"/>
       <c r="G116" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H116" s="3"/>
@@ -2737,7 +2749,7 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="22" t="e">
-        <f>VLOOKUP(C117,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C117" s="22"/>
@@ -2745,7 +2757,7 @@
       <c r="E117" s="17"/>
       <c r="F117" s="15"/>
       <c r="G117" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H117" s="3"/>
@@ -2753,7 +2765,7 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="22" t="e">
-        <f>VLOOKUP(C118,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C118" s="22"/>
@@ -2761,7 +2773,7 @@
       <c r="E118" s="17"/>
       <c r="F118" s="15"/>
       <c r="G118" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H118" s="3"/>
@@ -2769,7 +2781,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="22" t="e">
-        <f>VLOOKUP(C119,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C119" s="22"/>
@@ -2777,7 +2789,7 @@
       <c r="E119" s="17"/>
       <c r="F119" s="15"/>
       <c r="G119" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H119" s="3"/>
@@ -2785,7 +2797,7 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="22" t="e">
-        <f>VLOOKUP(C120,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C120" s="22"/>
@@ -2793,7 +2805,7 @@
       <c r="E120" s="17"/>
       <c r="F120" s="15"/>
       <c r="G120" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H120" s="3"/>
@@ -2801,7 +2813,7 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="22" t="e">
-        <f>VLOOKUP(C121,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C121" s="22"/>
@@ -2809,7 +2821,7 @@
       <c r="E121" s="17"/>
       <c r="F121" s="15"/>
       <c r="G121" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H121" s="3"/>
@@ -2817,7 +2829,7 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="22" t="e">
-        <f>VLOOKUP(C122,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C122" s="22"/>
@@ -2825,7 +2837,7 @@
       <c r="E122" s="17"/>
       <c r="F122" s="15"/>
       <c r="G122" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H122" s="3"/>
@@ -2833,7 +2845,7 @@
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="22" t="e">
-        <f>VLOOKUP(C123,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C123" s="22"/>
@@ -2841,7 +2853,7 @@
       <c r="E123" s="17"/>
       <c r="F123" s="15"/>
       <c r="G123" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H123" s="3"/>
@@ -2849,7 +2861,7 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="22" t="e">
-        <f>VLOOKUP(C124,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C124" s="22"/>
@@ -2857,7 +2869,7 @@
       <c r="E124" s="17"/>
       <c r="F124" s="15"/>
       <c r="G124" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H124" s="3"/>
@@ -2865,7 +2877,7 @@
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="22" t="e">
-        <f>VLOOKUP(C125,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C125" s="22"/>
@@ -2873,7 +2885,7 @@
       <c r="E125" s="17"/>
       <c r="F125" s="15"/>
       <c r="G125" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H125" s="3"/>
@@ -2881,7 +2893,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="22" t="e">
-        <f>VLOOKUP(C126,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C126" s="22"/>
@@ -2889,7 +2901,7 @@
       <c r="E126" s="17"/>
       <c r="F126" s="15"/>
       <c r="G126" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H126" s="3"/>
@@ -2897,7 +2909,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="22" t="e">
-        <f>VLOOKUP(C127,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C127" s="22"/>
@@ -2905,7 +2917,7 @@
       <c r="E127" s="17"/>
       <c r="F127" s="15"/>
       <c r="G127" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H127" s="3"/>
@@ -2913,7 +2925,7 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="22" t="e">
-        <f>VLOOKUP(C128,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C128" s="22"/>
@@ -2921,7 +2933,7 @@
       <c r="E128" s="17"/>
       <c r="F128" s="15"/>
       <c r="G128" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H128" s="3"/>
@@ -2929,7 +2941,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="22" t="e">
-        <f>VLOOKUP(C129,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C129" s="22"/>
@@ -2937,7 +2949,7 @@
       <c r="E129" s="17"/>
       <c r="F129" s="15"/>
       <c r="G129" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H129" s="3"/>
@@ -2945,7 +2957,7 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="22" t="e">
-        <f>VLOOKUP(C130,Tabla_lampara,2,)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="C130" s="22"/>
@@ -2953,7 +2965,7 @@
       <c r="E130" s="17"/>
       <c r="F130" s="15"/>
       <c r="G130" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="H130" s="3"/>
@@ -2961,7 +2973,7 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="22" t="e">
-        <f>VLOOKUP(C131,Tabla_lampara,2,)</f>
+        <f t="shared" ref="B131:B194" si="4">VLOOKUP(C131,Tabla_lampara,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C131" s="22"/>
@@ -2969,7 +2981,7 @@
       <c r="E131" s="17"/>
       <c r="F131" s="15"/>
       <c r="G131" s="3" t="e">
-        <f t="shared" ref="G131:G194" si="2">VLOOKUP(H131,Tabla_Mes,2,)</f>
+        <f t="shared" ref="G131:G194" si="5">VLOOKUP(H131,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="H131" s="3"/>
@@ -2977,7 +2989,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="22" t="e">
-        <f>VLOOKUP(C132,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C132" s="22"/>
@@ -2985,7 +2997,7 @@
       <c r="E132" s="17"/>
       <c r="F132" s="15"/>
       <c r="G132" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H132" s="3"/>
@@ -2993,7 +3005,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="22" t="e">
-        <f>VLOOKUP(C133,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C133" s="22"/>
@@ -3001,7 +3013,7 @@
       <c r="E133" s="17"/>
       <c r="F133" s="15"/>
       <c r="G133" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H133" s="3"/>
@@ -3009,7 +3021,7 @@
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="22" t="e">
-        <f>VLOOKUP(C134,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C134" s="22"/>
@@ -3017,7 +3029,7 @@
       <c r="E134" s="17"/>
       <c r="F134" s="15"/>
       <c r="G134" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H134" s="3"/>
@@ -3025,7 +3037,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="22" t="e">
-        <f>VLOOKUP(C135,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C135" s="22"/>
@@ -3033,7 +3045,7 @@
       <c r="E135" s="17"/>
       <c r="F135" s="15"/>
       <c r="G135" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H135" s="3"/>
@@ -3041,7 +3053,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="22" t="e">
-        <f>VLOOKUP(C136,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C136" s="22"/>
@@ -3049,7 +3061,7 @@
       <c r="E136" s="17"/>
       <c r="F136" s="15"/>
       <c r="G136" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H136" s="3"/>
@@ -3057,7 +3069,7 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="22" t="e">
-        <f>VLOOKUP(C137,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C137" s="22"/>
@@ -3065,7 +3077,7 @@
       <c r="E137" s="17"/>
       <c r="F137" s="15"/>
       <c r="G137" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H137" s="3"/>
@@ -3073,7 +3085,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="22" t="e">
-        <f>VLOOKUP(C138,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C138" s="22"/>
@@ -3081,7 +3093,7 @@
       <c r="E138" s="17"/>
       <c r="F138" s="15"/>
       <c r="G138" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H138" s="3"/>
@@ -3089,7 +3101,7 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="22" t="e">
-        <f>VLOOKUP(C139,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C139" s="22"/>
@@ -3097,7 +3109,7 @@
       <c r="E139" s="17"/>
       <c r="F139" s="15"/>
       <c r="G139" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H139" s="3"/>
@@ -3105,7 +3117,7 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="22" t="e">
-        <f>VLOOKUP(C140,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C140" s="22"/>
@@ -3113,7 +3125,7 @@
       <c r="E140" s="17"/>
       <c r="F140" s="15"/>
       <c r="G140" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H140" s="3"/>
@@ -3121,7 +3133,7 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="22" t="e">
-        <f>VLOOKUP(C141,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C141" s="22"/>
@@ -3129,7 +3141,7 @@
       <c r="E141" s="17"/>
       <c r="F141" s="15"/>
       <c r="G141" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H141" s="3"/>
@@ -3137,7 +3149,7 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="22" t="e">
-        <f>VLOOKUP(C142,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C142" s="22"/>
@@ -3145,7 +3157,7 @@
       <c r="E142" s="17"/>
       <c r="F142" s="15"/>
       <c r="G142" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H142" s="3"/>
@@ -3153,7 +3165,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="22" t="e">
-        <f>VLOOKUP(C143,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C143" s="22"/>
@@ -3161,7 +3173,7 @@
       <c r="E143" s="17"/>
       <c r="F143" s="15"/>
       <c r="G143" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H143" s="3"/>
@@ -3169,7 +3181,7 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="22" t="e">
-        <f>VLOOKUP(C144,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C144" s="22"/>
@@ -3177,7 +3189,7 @@
       <c r="E144" s="17"/>
       <c r="F144" s="15"/>
       <c r="G144" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H144" s="3"/>
@@ -3185,7 +3197,7 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="22" t="e">
-        <f>VLOOKUP(C145,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C145" s="22"/>
@@ -3193,7 +3205,7 @@
       <c r="E145" s="17"/>
       <c r="F145" s="15"/>
       <c r="G145" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H145" s="3"/>
@@ -3201,7 +3213,7 @@
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="22" t="e">
-        <f>VLOOKUP(C146,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C146" s="22"/>
@@ -3209,7 +3221,7 @@
       <c r="E146" s="17"/>
       <c r="F146" s="15"/>
       <c r="G146" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H146" s="3"/>
@@ -3217,7 +3229,7 @@
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="22" t="e">
-        <f>VLOOKUP(C147,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C147" s="22"/>
@@ -3225,7 +3237,7 @@
       <c r="E147" s="17"/>
       <c r="F147" s="15"/>
       <c r="G147" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H147" s="3"/>
@@ -3233,7 +3245,7 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="22" t="e">
-        <f>VLOOKUP(C148,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C148" s="22"/>
@@ -3241,7 +3253,7 @@
       <c r="E148" s="17"/>
       <c r="F148" s="15"/>
       <c r="G148" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H148" s="3"/>
@@ -3249,7 +3261,7 @@
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="22" t="e">
-        <f>VLOOKUP(C149,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C149" s="22"/>
@@ -3257,7 +3269,7 @@
       <c r="E149" s="17"/>
       <c r="F149" s="15"/>
       <c r="G149" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H149" s="3"/>
@@ -3265,7 +3277,7 @@
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="22" t="e">
-        <f>VLOOKUP(C150,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C150" s="22"/>
@@ -3273,7 +3285,7 @@
       <c r="E150" s="17"/>
       <c r="F150" s="15"/>
       <c r="G150" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H150" s="3"/>
@@ -3281,7 +3293,7 @@
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="22" t="e">
-        <f>VLOOKUP(C151,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C151" s="22"/>
@@ -3289,7 +3301,7 @@
       <c r="E151" s="17"/>
       <c r="F151" s="15"/>
       <c r="G151" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H151" s="3"/>
@@ -3297,7 +3309,7 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="22" t="e">
-        <f>VLOOKUP(C152,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C152" s="22"/>
@@ -3305,7 +3317,7 @@
       <c r="E152" s="17"/>
       <c r="F152" s="15"/>
       <c r="G152" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H152" s="3"/>
@@ -3313,7 +3325,7 @@
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="22" t="e">
-        <f>VLOOKUP(C153,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C153" s="22"/>
@@ -3321,7 +3333,7 @@
       <c r="E153" s="17"/>
       <c r="F153" s="15"/>
       <c r="G153" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H153" s="3"/>
@@ -3329,7 +3341,7 @@
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="22" t="e">
-        <f>VLOOKUP(C154,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C154" s="22"/>
@@ -3337,7 +3349,7 @@
       <c r="E154" s="17"/>
       <c r="F154" s="15"/>
       <c r="G154" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H154" s="3"/>
@@ -3345,7 +3357,7 @@
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="22" t="e">
-        <f>VLOOKUP(C155,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C155" s="22"/>
@@ -3353,7 +3365,7 @@
       <c r="E155" s="17"/>
       <c r="F155" s="15"/>
       <c r="G155" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H155" s="3"/>
@@ -3361,7 +3373,7 @@
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="22" t="e">
-        <f>VLOOKUP(C156,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C156" s="22"/>
@@ -3369,7 +3381,7 @@
       <c r="E156" s="17"/>
       <c r="F156" s="15"/>
       <c r="G156" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H156" s="3"/>
@@ -3377,7 +3389,7 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="22" t="e">
-        <f>VLOOKUP(C157,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C157" s="22"/>
@@ -3385,7 +3397,7 @@
       <c r="E157" s="17"/>
       <c r="F157" s="15"/>
       <c r="G157" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H157" s="3"/>
@@ -3393,7 +3405,7 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="22" t="e">
-        <f>VLOOKUP(C158,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C158" s="22"/>
@@ -3401,7 +3413,7 @@
       <c r="E158" s="17"/>
       <c r="F158" s="15"/>
       <c r="G158" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H158" s="3"/>
@@ -3409,7 +3421,7 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="22" t="e">
-        <f>VLOOKUP(C159,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C159" s="22"/>
@@ -3417,7 +3429,7 @@
       <c r="E159" s="17"/>
       <c r="F159" s="15"/>
       <c r="G159" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H159" s="3"/>
@@ -3425,7 +3437,7 @@
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="22" t="e">
-        <f>VLOOKUP(C160,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C160" s="22"/>
@@ -3433,7 +3445,7 @@
       <c r="E160" s="17"/>
       <c r="F160" s="15"/>
       <c r="G160" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H160" s="3"/>
@@ -3441,7 +3453,7 @@
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="22" t="e">
-        <f>VLOOKUP(C161,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C161" s="22"/>
@@ -3449,7 +3461,7 @@
       <c r="E161" s="17"/>
       <c r="F161" s="15"/>
       <c r="G161" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H161" s="3"/>
@@ -3457,7 +3469,7 @@
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="22" t="e">
-        <f>VLOOKUP(C162,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C162" s="22"/>
@@ -3465,7 +3477,7 @@
       <c r="E162" s="17"/>
       <c r="F162" s="15"/>
       <c r="G162" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H162" s="3"/>
@@ -3473,7 +3485,7 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="22" t="e">
-        <f>VLOOKUP(C163,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C163" s="22"/>
@@ -3481,7 +3493,7 @@
       <c r="E163" s="17"/>
       <c r="F163" s="15"/>
       <c r="G163" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H163" s="3"/>
@@ -3489,7 +3501,7 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="22" t="e">
-        <f>VLOOKUP(C164,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C164" s="22"/>
@@ -3497,7 +3509,7 @@
       <c r="E164" s="17"/>
       <c r="F164" s="15"/>
       <c r="G164" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H164" s="3"/>
@@ -3505,7 +3517,7 @@
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="22" t="e">
-        <f>VLOOKUP(C165,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C165" s="22"/>
@@ -3513,7 +3525,7 @@
       <c r="E165" s="17"/>
       <c r="F165" s="15"/>
       <c r="G165" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H165" s="3"/>
@@ -3521,7 +3533,7 @@
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
       <c r="B166" s="22" t="e">
-        <f>VLOOKUP(C166,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C166" s="22"/>
@@ -3529,7 +3541,7 @@
       <c r="E166" s="17"/>
       <c r="F166" s="15"/>
       <c r="G166" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H166" s="3"/>
@@ -3537,7 +3549,7 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
       <c r="B167" s="22" t="e">
-        <f>VLOOKUP(C167,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C167" s="22"/>
@@ -3545,7 +3557,7 @@
       <c r="E167" s="17"/>
       <c r="F167" s="15"/>
       <c r="G167" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H167" s="3"/>
@@ -3553,7 +3565,7 @@
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="22" t="e">
-        <f>VLOOKUP(C168,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C168" s="22"/>
@@ -3561,7 +3573,7 @@
       <c r="E168" s="17"/>
       <c r="F168" s="15"/>
       <c r="G168" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H168" s="3"/>
@@ -3569,7 +3581,7 @@
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
       <c r="B169" s="22" t="e">
-        <f>VLOOKUP(C169,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C169" s="22"/>
@@ -3577,7 +3589,7 @@
       <c r="E169" s="17"/>
       <c r="F169" s="15"/>
       <c r="G169" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H169" s="3"/>
@@ -3585,7 +3597,7 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
       <c r="B170" s="22" t="e">
-        <f>VLOOKUP(C170,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C170" s="22"/>
@@ -3593,7 +3605,7 @@
       <c r="E170" s="17"/>
       <c r="F170" s="15"/>
       <c r="G170" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H170" s="3"/>
@@ -3601,7 +3613,7 @@
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
       <c r="B171" s="22" t="e">
-        <f>VLOOKUP(C171,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C171" s="22"/>
@@ -3609,7 +3621,7 @@
       <c r="E171" s="17"/>
       <c r="F171" s="15"/>
       <c r="G171" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H171" s="3"/>
@@ -3617,7 +3629,7 @@
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
       <c r="B172" s="22" t="e">
-        <f>VLOOKUP(C172,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C172" s="22"/>
@@ -3625,7 +3637,7 @@
       <c r="E172" s="17"/>
       <c r="F172" s="15"/>
       <c r="G172" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H172" s="3"/>
@@ -3633,7 +3645,7 @@
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
       <c r="B173" s="22" t="e">
-        <f>VLOOKUP(C173,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C173" s="22"/>
@@ -3641,7 +3653,7 @@
       <c r="E173" s="17"/>
       <c r="F173" s="15"/>
       <c r="G173" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H173" s="3"/>
@@ -3649,7 +3661,7 @@
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="22" t="e">
-        <f>VLOOKUP(C174,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C174" s="22"/>
@@ -3657,7 +3669,7 @@
       <c r="E174" s="17"/>
       <c r="F174" s="15"/>
       <c r="G174" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H174" s="3"/>
@@ -3665,7 +3677,7 @@
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
       <c r="B175" s="22" t="e">
-        <f>VLOOKUP(C175,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C175" s="22"/>
@@ -3673,7 +3685,7 @@
       <c r="E175" s="17"/>
       <c r="F175" s="15"/>
       <c r="G175" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H175" s="3"/>
@@ -3681,7 +3693,7 @@
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
       <c r="B176" s="22" t="e">
-        <f>VLOOKUP(C176,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C176" s="22"/>
@@ -3689,7 +3701,7 @@
       <c r="E176" s="17"/>
       <c r="F176" s="15"/>
       <c r="G176" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H176" s="3"/>
@@ -3697,7 +3709,7 @@
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
       <c r="B177" s="22" t="e">
-        <f>VLOOKUP(C177,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C177" s="22"/>
@@ -3705,7 +3717,7 @@
       <c r="E177" s="17"/>
       <c r="F177" s="15"/>
       <c r="G177" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H177" s="3"/>
@@ -3713,7 +3725,7 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
       <c r="B178" s="22" t="e">
-        <f>VLOOKUP(C178,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C178" s="22"/>
@@ -3721,7 +3733,7 @@
       <c r="E178" s="17"/>
       <c r="F178" s="15"/>
       <c r="G178" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H178" s="3"/>
@@ -3729,7 +3741,7 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="22" t="e">
-        <f>VLOOKUP(C179,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C179" s="22"/>
@@ -3737,7 +3749,7 @@
       <c r="E179" s="17"/>
       <c r="F179" s="15"/>
       <c r="G179" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H179" s="3"/>
@@ -3745,7 +3757,7 @@
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="22" t="e">
-        <f>VLOOKUP(C180,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C180" s="22"/>
@@ -3753,7 +3765,7 @@
       <c r="E180" s="17"/>
       <c r="F180" s="15"/>
       <c r="G180" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H180" s="3"/>
@@ -3761,7 +3773,7 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
       <c r="B181" s="22" t="e">
-        <f>VLOOKUP(C181,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C181" s="22"/>
@@ -3769,7 +3781,7 @@
       <c r="E181" s="17"/>
       <c r="F181" s="15"/>
       <c r="G181" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H181" s="3"/>
@@ -3777,7 +3789,7 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
       <c r="B182" s="22" t="e">
-        <f>VLOOKUP(C182,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C182" s="22"/>
@@ -3785,7 +3797,7 @@
       <c r="E182" s="17"/>
       <c r="F182" s="15"/>
       <c r="G182" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H182" s="3"/>
@@ -3793,7 +3805,7 @@
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="22" t="e">
-        <f>VLOOKUP(C183,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C183" s="22"/>
@@ -3801,7 +3813,7 @@
       <c r="E183" s="17"/>
       <c r="F183" s="15"/>
       <c r="G183" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H183" s="3"/>
@@ -3809,7 +3821,7 @@
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
       <c r="B184" s="22" t="e">
-        <f>VLOOKUP(C184,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C184" s="22"/>
@@ -3817,7 +3829,7 @@
       <c r="E184" s="17"/>
       <c r="F184" s="15"/>
       <c r="G184" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H184" s="3"/>
@@ -3825,7 +3837,7 @@
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
       <c r="B185" s="22" t="e">
-        <f>VLOOKUP(C185,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C185" s="22"/>
@@ -3833,7 +3845,7 @@
       <c r="E185" s="17"/>
       <c r="F185" s="15"/>
       <c r="G185" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H185" s="3"/>
@@ -3841,7 +3853,7 @@
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
       <c r="B186" s="22" t="e">
-        <f>VLOOKUP(C186,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C186" s="22"/>
@@ -3849,7 +3861,7 @@
       <c r="E186" s="17"/>
       <c r="F186" s="15"/>
       <c r="G186" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H186" s="3"/>
@@ -3857,7 +3869,7 @@
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="22" t="e">
-        <f>VLOOKUP(C187,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C187" s="22"/>
@@ -3865,7 +3877,7 @@
       <c r="E187" s="17"/>
       <c r="F187" s="15"/>
       <c r="G187" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H187" s="3"/>
@@ -3873,7 +3885,7 @@
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
       <c r="B188" s="22" t="e">
-        <f>VLOOKUP(C188,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C188" s="22"/>
@@ -3881,7 +3893,7 @@
       <c r="E188" s="17"/>
       <c r="F188" s="15"/>
       <c r="G188" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H188" s="3"/>
@@ -3889,7 +3901,7 @@
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
       <c r="B189" s="22" t="e">
-        <f>VLOOKUP(C189,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C189" s="22"/>
@@ -3897,7 +3909,7 @@
       <c r="E189" s="17"/>
       <c r="F189" s="15"/>
       <c r="G189" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H189" s="3"/>
@@ -3905,7 +3917,7 @@
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
       <c r="B190" s="22" t="e">
-        <f>VLOOKUP(C190,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C190" s="22"/>
@@ -3913,7 +3925,7 @@
       <c r="E190" s="17"/>
       <c r="F190" s="15"/>
       <c r="G190" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H190" s="3"/>
@@ -3921,7 +3933,7 @@
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
       <c r="B191" s="22" t="e">
-        <f>VLOOKUP(C191,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C191" s="22"/>
@@ -3929,7 +3941,7 @@
       <c r="E191" s="17"/>
       <c r="F191" s="15"/>
       <c r="G191" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H191" s="3"/>
@@ -3937,7 +3949,7 @@
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
       <c r="B192" s="22" t="e">
-        <f>VLOOKUP(C192,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C192" s="22"/>
@@ -3945,7 +3957,7 @@
       <c r="E192" s="17"/>
       <c r="F192" s="15"/>
       <c r="G192" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H192" s="3"/>
@@ -3953,7 +3965,7 @@
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
       <c r="B193" s="22" t="e">
-        <f>VLOOKUP(C193,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C193" s="22"/>
@@ -3961,7 +3973,7 @@
       <c r="E193" s="17"/>
       <c r="F193" s="15"/>
       <c r="G193" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H193" s="3"/>
@@ -3969,7 +3981,7 @@
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
       <c r="B194" s="22" t="e">
-        <f>VLOOKUP(C194,Tabla_lampara,2,)</f>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="C194" s="22"/>
@@ -3977,7 +3989,7 @@
       <c r="E194" s="17"/>
       <c r="F194" s="15"/>
       <c r="G194" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="H194" s="3"/>
@@ -3985,7 +3997,7 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
       <c r="B195" s="22" t="e">
-        <f>VLOOKUP(C195,Tabla_lampara,2,)</f>
+        <f t="shared" ref="B195:B258" si="6">VLOOKUP(C195,Tabla_lampara,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C195" s="22"/>
@@ -3993,7 +4005,7 @@
       <c r="E195" s="17"/>
       <c r="F195" s="15"/>
       <c r="G195" s="3" t="e">
-        <f t="shared" ref="G195:G258" si="3">VLOOKUP(H195,Tabla_Mes,2,)</f>
+        <f t="shared" ref="G195:G258" si="7">VLOOKUP(H195,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="H195" s="3"/>
@@ -4001,7 +4013,7 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
       <c r="B196" s="22" t="e">
-        <f>VLOOKUP(C196,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C196" s="22"/>
@@ -4009,7 +4021,7 @@
       <c r="E196" s="17"/>
       <c r="F196" s="15"/>
       <c r="G196" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H196" s="3"/>
@@ -4017,7 +4029,7 @@
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
       <c r="B197" s="22" t="e">
-        <f>VLOOKUP(C197,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C197" s="22"/>
@@ -4025,7 +4037,7 @@
       <c r="E197" s="17"/>
       <c r="F197" s="15"/>
       <c r="G197" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H197" s="3"/>
@@ -4033,7 +4045,7 @@
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="22" t="e">
-        <f>VLOOKUP(C198,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C198" s="22"/>
@@ -4041,7 +4053,7 @@
       <c r="E198" s="17"/>
       <c r="F198" s="15"/>
       <c r="G198" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H198" s="3"/>
@@ -4049,7 +4061,7 @@
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
       <c r="B199" s="22" t="e">
-        <f>VLOOKUP(C199,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C199" s="22"/>
@@ -4057,7 +4069,7 @@
       <c r="E199" s="17"/>
       <c r="F199" s="15"/>
       <c r="G199" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H199" s="3"/>
@@ -4065,7 +4077,7 @@
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
       <c r="B200" s="22" t="e">
-        <f>VLOOKUP(C200,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C200" s="22"/>
@@ -4073,7 +4085,7 @@
       <c r="E200" s="17"/>
       <c r="F200" s="15"/>
       <c r="G200" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H200" s="3"/>
@@ -4081,7 +4093,7 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
       <c r="B201" s="22" t="e">
-        <f>VLOOKUP(C201,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C201" s="22"/>
@@ -4089,7 +4101,7 @@
       <c r="E201" s="17"/>
       <c r="F201" s="15"/>
       <c r="G201" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H201" s="3"/>
@@ -4097,7 +4109,7 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
       <c r="B202" s="22" t="e">
-        <f>VLOOKUP(C202,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C202" s="22"/>
@@ -4105,7 +4117,7 @@
       <c r="E202" s="17"/>
       <c r="F202" s="15"/>
       <c r="G202" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H202" s="3"/>
@@ -4113,7 +4125,7 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
       <c r="B203" s="22" t="e">
-        <f>VLOOKUP(C203,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C203" s="22"/>
@@ -4121,7 +4133,7 @@
       <c r="E203" s="17"/>
       <c r="F203" s="15"/>
       <c r="G203" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H203" s="3"/>
@@ -4129,7 +4141,7 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="22" t="e">
-        <f>VLOOKUP(C204,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C204" s="22"/>
@@ -4137,7 +4149,7 @@
       <c r="E204" s="17"/>
       <c r="F204" s="15"/>
       <c r="G204" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H204" s="3"/>
@@ -4145,7 +4157,7 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
       <c r="B205" s="22" t="e">
-        <f>VLOOKUP(C205,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C205" s="22"/>
@@ -4153,7 +4165,7 @@
       <c r="E205" s="17"/>
       <c r="F205" s="15"/>
       <c r="G205" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H205" s="3"/>
@@ -4161,7 +4173,7 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
       <c r="B206" s="22" t="e">
-        <f>VLOOKUP(C206,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C206" s="22"/>
@@ -4169,7 +4181,7 @@
       <c r="E206" s="17"/>
       <c r="F206" s="15"/>
       <c r="G206" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H206" s="3"/>
@@ -4177,7 +4189,7 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
       <c r="B207" s="22" t="e">
-        <f>VLOOKUP(C207,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C207" s="22"/>
@@ -4185,7 +4197,7 @@
       <c r="E207" s="17"/>
       <c r="F207" s="15"/>
       <c r="G207" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H207" s="3"/>
@@ -4193,7 +4205,7 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
       <c r="B208" s="22" t="e">
-        <f>VLOOKUP(C208,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C208" s="22"/>
@@ -4201,7 +4213,7 @@
       <c r="E208" s="17"/>
       <c r="F208" s="15"/>
       <c r="G208" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H208" s="3"/>
@@ -4209,7 +4221,7 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
       <c r="B209" s="22" t="e">
-        <f>VLOOKUP(C209,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C209" s="22"/>
@@ -4217,7 +4229,7 @@
       <c r="E209" s="17"/>
       <c r="F209" s="15"/>
       <c r="G209" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H209" s="3"/>
@@ -4225,7 +4237,7 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="22" t="e">
-        <f>VLOOKUP(C210,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C210" s="22"/>
@@ -4233,7 +4245,7 @@
       <c r="E210" s="17"/>
       <c r="F210" s="15"/>
       <c r="G210" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H210" s="3"/>
@@ -4241,7 +4253,7 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
       <c r="B211" s="22" t="e">
-        <f>VLOOKUP(C211,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C211" s="22"/>
@@ -4249,7 +4261,7 @@
       <c r="E211" s="17"/>
       <c r="F211" s="15"/>
       <c r="G211" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H211" s="3"/>
@@ -4257,7 +4269,7 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
       <c r="B212" s="22" t="e">
-        <f>VLOOKUP(C212,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C212" s="22"/>
@@ -4265,7 +4277,7 @@
       <c r="E212" s="17"/>
       <c r="F212" s="15"/>
       <c r="G212" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H212" s="3"/>
@@ -4273,7 +4285,7 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="22" t="e">
-        <f>VLOOKUP(C213,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C213" s="22"/>
@@ -4281,7 +4293,7 @@
       <c r="E213" s="17"/>
       <c r="F213" s="15"/>
       <c r="G213" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H213" s="3"/>
@@ -4289,7 +4301,7 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
       <c r="B214" s="22" t="e">
-        <f>VLOOKUP(C214,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C214" s="22"/>
@@ -4297,7 +4309,7 @@
       <c r="E214" s="17"/>
       <c r="F214" s="15"/>
       <c r="G214" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H214" s="3"/>
@@ -4305,7 +4317,7 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="22" t="e">
-        <f>VLOOKUP(C215,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C215" s="22"/>
@@ -4313,7 +4325,7 @@
       <c r="E215" s="17"/>
       <c r="F215" s="15"/>
       <c r="G215" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H215" s="3"/>
@@ -4321,7 +4333,7 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="22" t="e">
-        <f>VLOOKUP(C216,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C216" s="22"/>
@@ -4329,7 +4341,7 @@
       <c r="E216" s="17"/>
       <c r="F216" s="15"/>
       <c r="G216" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H216" s="3"/>
@@ -4337,7 +4349,7 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="22" t="e">
-        <f>VLOOKUP(C217,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C217" s="22"/>
@@ -4345,7 +4357,7 @@
       <c r="E217" s="17"/>
       <c r="F217" s="15"/>
       <c r="G217" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H217" s="3"/>
@@ -4353,7 +4365,7 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="22" t="e">
-        <f>VLOOKUP(C218,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C218" s="22"/>
@@ -4361,7 +4373,7 @@
       <c r="E218" s="17"/>
       <c r="F218" s="15"/>
       <c r="G218" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H218" s="3"/>
@@ -4369,7 +4381,7 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="22" t="e">
-        <f>VLOOKUP(C219,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C219" s="22"/>
@@ -4377,7 +4389,7 @@
       <c r="E219" s="17"/>
       <c r="F219" s="15"/>
       <c r="G219" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H219" s="3"/>
@@ -4385,7 +4397,7 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="22" t="e">
-        <f>VLOOKUP(C220,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C220" s="22"/>
@@ -4393,7 +4405,7 @@
       <c r="E220" s="17"/>
       <c r="F220" s="15"/>
       <c r="G220" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H220" s="3"/>
@@ -4401,7 +4413,7 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="22" t="e">
-        <f>VLOOKUP(C221,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C221" s="22"/>
@@ -4409,7 +4421,7 @@
       <c r="E221" s="17"/>
       <c r="F221" s="15"/>
       <c r="G221" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H221" s="3"/>
@@ -4417,7 +4429,7 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="22" t="e">
-        <f>VLOOKUP(C222,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C222" s="22"/>
@@ -4425,7 +4437,7 @@
       <c r="E222" s="17"/>
       <c r="F222" s="15"/>
       <c r="G222" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H222" s="3"/>
@@ -4433,7 +4445,7 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="22" t="e">
-        <f>VLOOKUP(C223,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C223" s="22"/>
@@ -4441,7 +4453,7 @@
       <c r="E223" s="17"/>
       <c r="F223" s="15"/>
       <c r="G223" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H223" s="3"/>
@@ -4449,7 +4461,7 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="22" t="e">
-        <f>VLOOKUP(C224,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C224" s="22"/>
@@ -4457,7 +4469,7 @@
       <c r="E224" s="17"/>
       <c r="F224" s="15"/>
       <c r="G224" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H224" s="3"/>
@@ -4465,7 +4477,7 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
       <c r="B225" s="22" t="e">
-        <f>VLOOKUP(C225,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C225" s="22"/>
@@ -4473,7 +4485,7 @@
       <c r="E225" s="17"/>
       <c r="F225" s="15"/>
       <c r="G225" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H225" s="3"/>
@@ -4481,7 +4493,7 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="22" t="e">
-        <f>VLOOKUP(C226,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C226" s="22"/>
@@ -4489,7 +4501,7 @@
       <c r="E226" s="17"/>
       <c r="F226" s="15"/>
       <c r="G226" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H226" s="3"/>
@@ -4497,7 +4509,7 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="22" t="e">
-        <f>VLOOKUP(C227,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C227" s="22"/>
@@ -4505,7 +4517,7 @@
       <c r="E227" s="17"/>
       <c r="F227" s="15"/>
       <c r="G227" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H227" s="3"/>
@@ -4513,7 +4525,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="22" t="e">
-        <f>VLOOKUP(C228,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C228" s="22"/>
@@ -4521,7 +4533,7 @@
       <c r="E228" s="17"/>
       <c r="F228" s="15"/>
       <c r="G228" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H228" s="3"/>
@@ -4529,7 +4541,7 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="22" t="e">
-        <f>VLOOKUP(C229,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C229" s="22"/>
@@ -4537,7 +4549,7 @@
       <c r="E229" s="17"/>
       <c r="F229" s="15"/>
       <c r="G229" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H229" s="3"/>
@@ -4545,7 +4557,7 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="22" t="e">
-        <f>VLOOKUP(C230,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C230" s="22"/>
@@ -4553,7 +4565,7 @@
       <c r="E230" s="17"/>
       <c r="F230" s="15"/>
       <c r="G230" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H230" s="3"/>
@@ -4561,7 +4573,7 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="22" t="e">
-        <f>VLOOKUP(C231,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C231" s="22"/>
@@ -4569,7 +4581,7 @@
       <c r="E231" s="17"/>
       <c r="F231" s="15"/>
       <c r="G231" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H231" s="3"/>
@@ -4577,7 +4589,7 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="22" t="e">
-        <f>VLOOKUP(C232,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C232" s="22"/>
@@ -4585,7 +4597,7 @@
       <c r="E232" s="17"/>
       <c r="F232" s="15"/>
       <c r="G232" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H232" s="3"/>
@@ -4593,7 +4605,7 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="22" t="e">
-        <f>VLOOKUP(C233,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C233" s="22"/>
@@ -4601,7 +4613,7 @@
       <c r="E233" s="17"/>
       <c r="F233" s="15"/>
       <c r="G233" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H233" s="3"/>
@@ -4609,7 +4621,7 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="22" t="e">
-        <f>VLOOKUP(C234,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C234" s="22"/>
@@ -4617,7 +4629,7 @@
       <c r="E234" s="17"/>
       <c r="F234" s="15"/>
       <c r="G234" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H234" s="3"/>
@@ -4625,7 +4637,7 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="22" t="e">
-        <f>VLOOKUP(C235,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C235" s="22"/>
@@ -4633,7 +4645,7 @@
       <c r="E235" s="17"/>
       <c r="F235" s="15"/>
       <c r="G235" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H235" s="3"/>
@@ -4641,7 +4653,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="22" t="e">
-        <f>VLOOKUP(C236,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C236" s="22"/>
@@ -4649,7 +4661,7 @@
       <c r="E236" s="17"/>
       <c r="F236" s="15"/>
       <c r="G236" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H236" s="3"/>
@@ -4657,7 +4669,7 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="22" t="e">
-        <f>VLOOKUP(C237,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C237" s="22"/>
@@ -4665,7 +4677,7 @@
       <c r="E237" s="17"/>
       <c r="F237" s="15"/>
       <c r="G237" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H237" s="3"/>
@@ -4673,7 +4685,7 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
       <c r="B238" s="22" t="e">
-        <f>VLOOKUP(C238,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C238" s="22"/>
@@ -4681,7 +4693,7 @@
       <c r="E238" s="17"/>
       <c r="F238" s="15"/>
       <c r="G238" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H238" s="3"/>
@@ -4689,7 +4701,7 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
       <c r="B239" s="22" t="e">
-        <f>VLOOKUP(C239,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C239" s="22"/>
@@ -4697,7 +4709,7 @@
       <c r="E239" s="17"/>
       <c r="F239" s="15"/>
       <c r="G239" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H239" s="3"/>
@@ -4705,7 +4717,7 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="22" t="e">
-        <f>VLOOKUP(C240,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C240" s="22"/>
@@ -4713,7 +4725,7 @@
       <c r="E240" s="17"/>
       <c r="F240" s="15"/>
       <c r="G240" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H240" s="3"/>
@@ -4721,7 +4733,7 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="22" t="e">
-        <f>VLOOKUP(C241,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C241" s="22"/>
@@ -4729,7 +4741,7 @@
       <c r="E241" s="17"/>
       <c r="F241" s="15"/>
       <c r="G241" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H241" s="3"/>
@@ -4737,7 +4749,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="22" t="e">
-        <f>VLOOKUP(C242,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C242" s="22"/>
@@ -4745,7 +4757,7 @@
       <c r="E242" s="17"/>
       <c r="F242" s="15"/>
       <c r="G242" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H242" s="3"/>
@@ -4753,7 +4765,7 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="22" t="e">
-        <f>VLOOKUP(C243,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C243" s="22"/>
@@ -4761,7 +4773,7 @@
       <c r="E243" s="17"/>
       <c r="F243" s="15"/>
       <c r="G243" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H243" s="3"/>
@@ -4769,7 +4781,7 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="22" t="e">
-        <f>VLOOKUP(C244,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C244" s="22"/>
@@ -4777,7 +4789,7 @@
       <c r="E244" s="17"/>
       <c r="F244" s="15"/>
       <c r="G244" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H244" s="3"/>
@@ -4785,7 +4797,7 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="22" t="e">
-        <f>VLOOKUP(C245,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C245" s="22"/>
@@ -4793,7 +4805,7 @@
       <c r="E245" s="17"/>
       <c r="F245" s="15"/>
       <c r="G245" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H245" s="3"/>
@@ -4801,7 +4813,7 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="22" t="e">
-        <f>VLOOKUP(C246,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C246" s="22"/>
@@ -4809,7 +4821,7 @@
       <c r="E246" s="17"/>
       <c r="F246" s="15"/>
       <c r="G246" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H246" s="3"/>
@@ -4817,7 +4829,7 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="22" t="e">
-        <f>VLOOKUP(C247,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C247" s="22"/>
@@ -4825,7 +4837,7 @@
       <c r="E247" s="17"/>
       <c r="F247" s="15"/>
       <c r="G247" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H247" s="3"/>
@@ -4833,7 +4845,7 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="22" t="e">
-        <f>VLOOKUP(C248,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C248" s="22"/>
@@ -4841,7 +4853,7 @@
       <c r="E248" s="17"/>
       <c r="F248" s="15"/>
       <c r="G248" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H248" s="3"/>
@@ -4849,7 +4861,7 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="22" t="e">
-        <f>VLOOKUP(C249,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C249" s="22"/>
@@ -4857,7 +4869,7 @@
       <c r="E249" s="17"/>
       <c r="F249" s="15"/>
       <c r="G249" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H249" s="3"/>
@@ -4865,7 +4877,7 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="22" t="e">
-        <f>VLOOKUP(C250,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C250" s="22"/>
@@ -4873,7 +4885,7 @@
       <c r="E250" s="17"/>
       <c r="F250" s="15"/>
       <c r="G250" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H250" s="3"/>
@@ -4881,7 +4893,7 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="22" t="e">
-        <f>VLOOKUP(C251,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C251" s="22"/>
@@ -4889,7 +4901,7 @@
       <c r="E251" s="17"/>
       <c r="F251" s="15"/>
       <c r="G251" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H251" s="3"/>
@@ -4897,7 +4909,7 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
       <c r="B252" s="22" t="e">
-        <f>VLOOKUP(C252,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C252" s="22"/>
@@ -4905,7 +4917,7 @@
       <c r="E252" s="17"/>
       <c r="F252" s="15"/>
       <c r="G252" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H252" s="3"/>
@@ -4913,7 +4925,7 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="22" t="e">
-        <f>VLOOKUP(C253,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C253" s="22"/>
@@ -4921,7 +4933,7 @@
       <c r="E253" s="17"/>
       <c r="F253" s="15"/>
       <c r="G253" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H253" s="3"/>
@@ -4929,7 +4941,7 @@
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="22" t="e">
-        <f>VLOOKUP(C254,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C254" s="22"/>
@@ -4937,7 +4949,7 @@
       <c r="E254" s="17"/>
       <c r="F254" s="15"/>
       <c r="G254" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H254" s="3"/>
@@ -4945,7 +4957,7 @@
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="22" t="e">
-        <f>VLOOKUP(C255,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C255" s="22"/>
@@ -4953,7 +4965,7 @@
       <c r="E255" s="17"/>
       <c r="F255" s="15"/>
       <c r="G255" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H255" s="3"/>
@@ -4961,7 +4973,7 @@
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="22" t="e">
-        <f>VLOOKUP(C256,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C256" s="22"/>
@@ -4969,7 +4981,7 @@
       <c r="E256" s="17"/>
       <c r="F256" s="15"/>
       <c r="G256" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H256" s="3"/>
@@ -4977,7 +4989,7 @@
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="22" t="e">
-        <f>VLOOKUP(C257,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C257" s="22"/>
@@ -4985,7 +4997,7 @@
       <c r="E257" s="17"/>
       <c r="F257" s="15"/>
       <c r="G257" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H257" s="3"/>
@@ -4993,7 +5005,7 @@
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="22" t="e">
-        <f>VLOOKUP(C258,Tabla_lampara,2,)</f>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="C258" s="22"/>
@@ -5001,7 +5013,7 @@
       <c r="E258" s="17"/>
       <c r="F258" s="15"/>
       <c r="G258" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H258" s="3"/>
@@ -5009,7 +5021,7 @@
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="22" t="e">
-        <f>VLOOKUP(C259,Tabla_lampara,2,)</f>
+        <f t="shared" ref="B259:B322" si="8">VLOOKUP(C259,Tabla_lampara,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C259" s="22"/>
@@ -5017,7 +5029,7 @@
       <c r="E259" s="17"/>
       <c r="F259" s="15"/>
       <c r="G259" s="3" t="e">
-        <f t="shared" ref="G259:G311" si="4">VLOOKUP(H259,Tabla_Mes,2,)</f>
+        <f t="shared" ref="G259:G311" si="9">VLOOKUP(H259,Tabla_Mes,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="H259" s="3"/>
@@ -5025,7 +5037,7 @@
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="22" t="e">
-        <f>VLOOKUP(C260,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C260" s="22"/>
@@ -5033,7 +5045,7 @@
       <c r="E260" s="17"/>
       <c r="F260" s="15"/>
       <c r="G260" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H260" s="3"/>
@@ -5041,7 +5053,7 @@
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="22" t="e">
-        <f>VLOOKUP(C261,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C261" s="22"/>
@@ -5049,7 +5061,7 @@
       <c r="E261" s="17"/>
       <c r="F261" s="15"/>
       <c r="G261" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H261" s="3"/>
@@ -5057,7 +5069,7 @@
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="22" t="e">
-        <f>VLOOKUP(C262,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C262" s="22"/>
@@ -5065,7 +5077,7 @@
       <c r="E262" s="17"/>
       <c r="F262" s="15"/>
       <c r="G262" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H262" s="3"/>
@@ -5073,7 +5085,7 @@
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
       <c r="B263" s="22" t="e">
-        <f>VLOOKUP(C263,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C263" s="22"/>
@@ -5081,7 +5093,7 @@
       <c r="E263" s="17"/>
       <c r="F263" s="15"/>
       <c r="G263" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H263" s="3"/>
@@ -5089,7 +5101,7 @@
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="22" t="e">
-        <f>VLOOKUP(C264,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C264" s="22"/>
@@ -5097,7 +5109,7 @@
       <c r="E264" s="17"/>
       <c r="F264" s="15"/>
       <c r="G264" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H264" s="3"/>
@@ -5105,7 +5117,7 @@
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="22" t="e">
-        <f>VLOOKUP(C265,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C265" s="22"/>
@@ -5113,7 +5125,7 @@
       <c r="E265" s="17"/>
       <c r="F265" s="15"/>
       <c r="G265" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H265" s="3"/>
@@ -5121,7 +5133,7 @@
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="22" t="e">
-        <f>VLOOKUP(C266,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C266" s="22"/>
@@ -5129,7 +5141,7 @@
       <c r="E266" s="17"/>
       <c r="F266" s="15"/>
       <c r="G266" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H266" s="3"/>
@@ -5137,7 +5149,7 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
       <c r="B267" s="22" t="e">
-        <f>VLOOKUP(C267,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C267" s="22"/>
@@ -5145,7 +5157,7 @@
       <c r="E267" s="17"/>
       <c r="F267" s="15"/>
       <c r="G267" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H267" s="3"/>
@@ -5153,7 +5165,7 @@
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="22" t="e">
-        <f>VLOOKUP(C268,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C268" s="22"/>
@@ -5161,7 +5173,7 @@
       <c r="E268" s="17"/>
       <c r="F268" s="15"/>
       <c r="G268" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H268" s="3"/>
@@ -5169,7 +5181,7 @@
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="22" t="e">
-        <f>VLOOKUP(C269,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C269" s="22"/>
@@ -5177,7 +5189,7 @@
       <c r="E269" s="17"/>
       <c r="F269" s="15"/>
       <c r="G269" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H269" s="3"/>
@@ -5185,7 +5197,7 @@
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="22" t="e">
-        <f>VLOOKUP(C270,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C270" s="22"/>
@@ -5193,7 +5205,7 @@
       <c r="E270" s="17"/>
       <c r="F270" s="15"/>
       <c r="G270" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H270" s="3"/>
@@ -5201,7 +5213,7 @@
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="22" t="e">
-        <f>VLOOKUP(C271,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C271" s="22"/>
@@ -5209,7 +5221,7 @@
       <c r="E271" s="17"/>
       <c r="F271" s="15"/>
       <c r="G271" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H271" s="3"/>
@@ -5217,7 +5229,7 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="22" t="e">
-        <f>VLOOKUP(C272,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C272" s="22"/>
@@ -5225,7 +5237,7 @@
       <c r="E272" s="17"/>
       <c r="F272" s="15"/>
       <c r="G272" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H272" s="3"/>
@@ -5233,7 +5245,7 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="22" t="e">
-        <f>VLOOKUP(C273,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C273" s="22"/>
@@ -5241,7 +5253,7 @@
       <c r="E273" s="17"/>
       <c r="F273" s="15"/>
       <c r="G273" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H273" s="3"/>
@@ -5249,7 +5261,7 @@
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
       <c r="B274" s="22" t="e">
-        <f>VLOOKUP(C274,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C274" s="22"/>
@@ -5257,7 +5269,7 @@
       <c r="E274" s="17"/>
       <c r="F274" s="15"/>
       <c r="G274" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H274" s="3"/>
@@ -5265,7 +5277,7 @@
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
       <c r="B275" s="22" t="e">
-        <f>VLOOKUP(C275,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C275" s="22"/>
@@ -5273,7 +5285,7 @@
       <c r="E275" s="17"/>
       <c r="F275" s="15"/>
       <c r="G275" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H275" s="3"/>
@@ -5281,7 +5293,7 @@
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
       <c r="B276" s="22" t="e">
-        <f>VLOOKUP(C276,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C276" s="22"/>
@@ -5289,7 +5301,7 @@
       <c r="E276" s="17"/>
       <c r="F276" s="15"/>
       <c r="G276" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H276" s="3"/>
@@ -5297,7 +5309,7 @@
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
       <c r="B277" s="22" t="e">
-        <f>VLOOKUP(C277,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C277" s="22"/>
@@ -5305,7 +5317,7 @@
       <c r="E277" s="17"/>
       <c r="F277" s="15"/>
       <c r="G277" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H277" s="3"/>
@@ -5313,7 +5325,7 @@
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
       <c r="B278" s="22" t="e">
-        <f>VLOOKUP(C278,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C278" s="22"/>
@@ -5321,7 +5333,7 @@
       <c r="E278" s="17"/>
       <c r="F278" s="15"/>
       <c r="G278" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H278" s="3"/>
@@ -5329,7 +5341,7 @@
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
       <c r="B279" s="22" t="e">
-        <f>VLOOKUP(C279,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C279" s="22"/>
@@ -5337,7 +5349,7 @@
       <c r="E279" s="17"/>
       <c r="F279" s="15"/>
       <c r="G279" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H279" s="3"/>
@@ -5345,7 +5357,7 @@
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
       <c r="B280" s="22" t="e">
-        <f>VLOOKUP(C280,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C280" s="22"/>
@@ -5353,7 +5365,7 @@
       <c r="E280" s="17"/>
       <c r="F280" s="15"/>
       <c r="G280" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H280" s="3"/>
@@ -5361,7 +5373,7 @@
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="22" t="e">
-        <f>VLOOKUP(C281,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C281" s="22"/>
@@ -5369,7 +5381,7 @@
       <c r="E281" s="17"/>
       <c r="F281" s="15"/>
       <c r="G281" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H281" s="3"/>
@@ -5377,7 +5389,7 @@
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="22" t="e">
-        <f>VLOOKUP(C282,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C282" s="22"/>
@@ -5385,7 +5397,7 @@
       <c r="E282" s="17"/>
       <c r="F282" s="15"/>
       <c r="G282" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H282" s="3"/>
@@ -5393,7 +5405,7 @@
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="22" t="e">
-        <f>VLOOKUP(C283,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C283" s="22"/>
@@ -5401,7 +5413,7 @@
       <c r="E283" s="17"/>
       <c r="F283" s="15"/>
       <c r="G283" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H283" s="3"/>
@@ -5409,7 +5421,7 @@
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="22" t="e">
-        <f>VLOOKUP(C284,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C284" s="22"/>
@@ -5417,7 +5429,7 @@
       <c r="E284" s="17"/>
       <c r="F284" s="15"/>
       <c r="G284" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H284" s="3"/>
@@ -5425,7 +5437,7 @@
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="22" t="e">
-        <f>VLOOKUP(C285,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C285" s="22"/>
@@ -5433,7 +5445,7 @@
       <c r="E285" s="17"/>
       <c r="F285" s="15"/>
       <c r="G285" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H285" s="3"/>
@@ -5441,7 +5453,7 @@
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="22" t="e">
-        <f>VLOOKUP(C286,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C286" s="22"/>
@@ -5449,7 +5461,7 @@
       <c r="E286" s="17"/>
       <c r="F286" s="15"/>
       <c r="G286" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H286" s="3"/>
@@ -5457,7 +5469,7 @@
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="22" t="e">
-        <f>VLOOKUP(C287,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C287" s="22"/>
@@ -5465,7 +5477,7 @@
       <c r="E287" s="17"/>
       <c r="F287" s="15"/>
       <c r="G287" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H287" s="3"/>
@@ -5473,7 +5485,7 @@
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="22" t="e">
-        <f>VLOOKUP(C288,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C288" s="22"/>
@@ -5481,7 +5493,7 @@
       <c r="E288" s="17"/>
       <c r="F288" s="15"/>
       <c r="G288" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H288" s="3"/>
@@ -5489,7 +5501,7 @@
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="22" t="e">
-        <f>VLOOKUP(C289,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C289" s="22"/>
@@ -5497,7 +5509,7 @@
       <c r="E289" s="17"/>
       <c r="F289" s="15"/>
       <c r="G289" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H289" s="3"/>
@@ -5505,7 +5517,7 @@
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="22" t="e">
-        <f>VLOOKUP(C290,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C290" s="22"/>
@@ -5513,7 +5525,7 @@
       <c r="E290" s="17"/>
       <c r="F290" s="15"/>
       <c r="G290" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H290" s="3"/>
@@ -5521,7 +5533,7 @@
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
       <c r="B291" s="22" t="e">
-        <f>VLOOKUP(C291,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C291" s="22"/>
@@ -5529,7 +5541,7 @@
       <c r="E291" s="17"/>
       <c r="F291" s="15"/>
       <c r="G291" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H291" s="3"/>
@@ -5537,7 +5549,7 @@
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="22" t="e">
-        <f>VLOOKUP(C292,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C292" s="22"/>
@@ -5545,7 +5557,7 @@
       <c r="E292" s="17"/>
       <c r="F292" s="15"/>
       <c r="G292" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H292" s="3"/>
@@ -5553,7 +5565,7 @@
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="22" t="e">
-        <f>VLOOKUP(C293,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C293" s="22"/>
@@ -5561,7 +5573,7 @@
       <c r="E293" s="17"/>
       <c r="F293" s="15"/>
       <c r="G293" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H293" s="3"/>
@@ -5569,7 +5581,7 @@
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
       <c r="B294" s="22" t="e">
-        <f>VLOOKUP(C294,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C294" s="22"/>
@@ -5577,7 +5589,7 @@
       <c r="E294" s="17"/>
       <c r="F294" s="15"/>
       <c r="G294" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H294" s="3"/>
@@ -5585,7 +5597,7 @@
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
       <c r="B295" s="22" t="e">
-        <f>VLOOKUP(C295,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C295" s="22"/>
@@ -5593,7 +5605,7 @@
       <c r="E295" s="17"/>
       <c r="F295" s="15"/>
       <c r="G295" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H295" s="3"/>
@@ -5601,7 +5613,7 @@
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="22" t="e">
-        <f>VLOOKUP(C296,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C296" s="22"/>
@@ -5609,7 +5621,7 @@
       <c r="E296" s="17"/>
       <c r="F296" s="15"/>
       <c r="G296" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H296" s="3"/>
@@ -5617,7 +5629,7 @@
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="22" t="e">
-        <f>VLOOKUP(C297,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C297" s="22"/>
@@ -5625,7 +5637,7 @@
       <c r="E297" s="17"/>
       <c r="F297" s="15"/>
       <c r="G297" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H297" s="3"/>
@@ -5633,7 +5645,7 @@
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="22" t="e">
-        <f>VLOOKUP(C298,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C298" s="22"/>
@@ -5641,7 +5653,7 @@
       <c r="E298" s="17"/>
       <c r="F298" s="15"/>
       <c r="G298" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H298" s="3"/>
@@ -5649,7 +5661,7 @@
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="22" t="e">
-        <f>VLOOKUP(C299,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C299" s="22"/>
@@ -5657,7 +5669,7 @@
       <c r="E299" s="17"/>
       <c r="F299" s="15"/>
       <c r="G299" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H299" s="3"/>
@@ -5665,7 +5677,7 @@
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="22" t="e">
-        <f>VLOOKUP(C300,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C300" s="22"/>
@@ -5673,7 +5685,7 @@
       <c r="E300" s="17"/>
       <c r="F300" s="15"/>
       <c r="G300" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H300" s="3"/>
@@ -5681,7 +5693,7 @@
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="22" t="e">
-        <f>VLOOKUP(C301,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C301" s="22"/>
@@ -5689,7 +5701,7 @@
       <c r="E301" s="17"/>
       <c r="F301" s="15"/>
       <c r="G301" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H301" s="3"/>
@@ -5697,7 +5709,7 @@
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="22" t="e">
-        <f>VLOOKUP(C302,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C302" s="22"/>
@@ -5705,7 +5717,7 @@
       <c r="E302" s="17"/>
       <c r="F302" s="15"/>
       <c r="G302" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H302" s="3"/>
@@ -5713,7 +5725,7 @@
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="22" t="e">
-        <f>VLOOKUP(C303,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C303" s="22"/>
@@ -5721,7 +5733,7 @@
       <c r="E303" s="17"/>
       <c r="F303" s="15"/>
       <c r="G303" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H303" s="3"/>
@@ -5729,7 +5741,7 @@
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="22" t="e">
-        <f>VLOOKUP(C304,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C304" s="22"/>
@@ -5737,7 +5749,7 @@
       <c r="E304" s="17"/>
       <c r="F304" s="15"/>
       <c r="G304" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H304" s="3"/>
@@ -5745,7 +5757,7 @@
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
       <c r="B305" s="22" t="e">
-        <f>VLOOKUP(C305,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C305" s="22"/>
@@ -5753,7 +5765,7 @@
       <c r="E305" s="17"/>
       <c r="F305" s="15"/>
       <c r="G305" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H305" s="3"/>
@@ -5761,7 +5773,7 @@
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
       <c r="B306" s="22" t="e">
-        <f>VLOOKUP(C306,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C306" s="22"/>
@@ -5769,7 +5781,7 @@
       <c r="E306" s="17"/>
       <c r="F306" s="15"/>
       <c r="G306" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H306" s="3"/>
@@ -5777,7 +5789,7 @@
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
       <c r="B307" s="22" t="e">
-        <f>VLOOKUP(C307,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C307" s="22"/>
@@ -5785,7 +5797,7 @@
       <c r="E307" s="17"/>
       <c r="F307" s="15"/>
       <c r="G307" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H307" s="3"/>
@@ -5793,7 +5805,7 @@
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="22" t="e">
-        <f>VLOOKUP(C308,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C308" s="22"/>
@@ -5801,7 +5813,7 @@
       <c r="E308" s="17"/>
       <c r="F308" s="15"/>
       <c r="G308" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H308" s="3"/>
@@ -5809,7 +5821,7 @@
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
       <c r="B309" s="22" t="e">
-        <f>VLOOKUP(C309,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C309" s="22"/>
@@ -5817,7 +5829,7 @@
       <c r="E309" s="17"/>
       <c r="F309" s="15"/>
       <c r="G309" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H309" s="3"/>
@@ -5825,7 +5837,7 @@
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
       <c r="B310" s="22" t="e">
-        <f>VLOOKUP(C310,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C310" s="22"/>
@@ -5833,7 +5845,7 @@
       <c r="E310" s="17"/>
       <c r="F310" s="15"/>
       <c r="G310" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H310" s="3"/>
@@ -5841,7 +5853,7 @@
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
       <c r="B311" s="22" t="e">
-        <f>VLOOKUP(C311,Tabla_lampara,2,)</f>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="C311" s="22"/>
@@ -5849,7 +5861,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
       <c r="G311" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H311" s="3"/>

--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/1.5 Plantilla_Iluminacion_residencial.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/1.5 Plantilla_Iluminacion_residencial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\Para MASIVOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A097A1B7-B46B-49C5-B4B2-D8321D1025C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD51318F-039B-4CC0-9FFC-4082033ADE75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{38F91648-8E81-4530-8820-7CE20EF243A4}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <author>Dell</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E937F36F-CD1D-4F24-8A17-957F646F1C22}">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{63DF14E1-DE9E-4B14-A66D-D3AE0DE5E492}">
       <text>
         <r>
           <rPr>
@@ -54,65 +54,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Año al que corresponde el registro.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{6EBCE442-B160-43B7-A975-3CBE31A629C5}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Potencia de la lámpara antes de la implementación.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{2D9E057E-BE31-4C6D-821E-DB75CBB42326}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Potencia de la lámpara posterior a la implementación.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A7A8070C-0B89-4A64-99DC-D13FCD6EBE94}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Numero de unidades de este tipo o clase.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{BDC03BF6-855A-4B6F-A12F-2F0ADB6530CF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Mes en el que se compraron las lámparas.</t>
+          <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
         </r>
       </text>
     </comment>
@@ -121,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Año</t>
   </si>
@@ -174,34 +116,7 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>Año al que corresponde el registro.</t>
-  </si>
-  <si>
-    <t>Potencia de la lámpara posterior a la implementación.</t>
-  </si>
-  <si>
-    <t>Potencia de la lámpara antes de la implementación.</t>
-  </si>
-  <si>
-    <t>Número de unidades de este tipo o clase.</t>
-  </si>
-  <si>
-    <t>Mes en el que se compraron las lámparas.</t>
-  </si>
-  <si>
-    <t>Potencia Base (W)</t>
-  </si>
-  <si>
-    <t>Potencia Iniciativa (W)</t>
-  </si>
-  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>Tipo de lámparas</t>
-  </si>
-  <si>
-    <t>Especificación de la lámpara (Incandecente, ahorrador, etc).</t>
   </si>
   <si>
     <t>Tipo LAMPARA</t>
@@ -221,12 +136,39 @@
   <si>
     <t>LED</t>
   </si>
+  <si>
+    <t>Año en que se compraron lámparas. Seleccione de la lista desplegable</t>
+  </si>
+  <si>
+    <t>Tipo de lámpara BAU</t>
+  </si>
+  <si>
+    <t>Potencia de lámpara BAU (W)</t>
+  </si>
+  <si>
+    <t>Potencia de lámpara iniciativa (W)</t>
+  </si>
+  <si>
+    <t>Especificación de la lámpara (Incandecente, ahorrador, etc). Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Potencia de la lámpara antes de la implementación. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Potencia de la lámpara posterior a la implementación. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Número de unidades de este tipo o clase. Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Mes en el que se compraron las lámparas. Seleccione de la lista desplegable.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,19 +198,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -276,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -415,7 +350,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -426,16 +361,16 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -478,6 +413,22 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -798,19 +749,19 @@
   <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -819,16 +770,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -840,167 +791,119 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="26">
         <v>2016</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="27">
         <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_lampara,2,)</f>
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="C3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="28">
         <v>100</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="29">
         <v>11</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="29">
         <v>780000</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="27">
         <f t="shared" ref="G3:G66" si="1">VLOOKUP(H3,Tabla_Mes,2,)</f>
         <v>4</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B4" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="16">
-        <v>18</v>
-      </c>
-      <c r="E4" s="19">
-        <v>10</v>
-      </c>
-      <c r="F4" s="18">
-        <v>125000</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="23">
-        <v>18</v>
-      </c>
-      <c r="E5" s="18">
-        <v>10</v>
-      </c>
-      <c r="F5" s="14">
-        <v>120000</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="9"/>
+      <c r="B5" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="24">
-        <v>100</v>
-      </c>
-      <c r="E6" s="24">
-        <v>11</v>
-      </c>
-      <c r="F6" s="25">
-        <v>150000</v>
-      </c>
-      <c r="G6" s="22">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="22" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="17">
-        <v>839</v>
-      </c>
-      <c r="E7" s="17">
-        <v>11</v>
-      </c>
-      <c r="F7" s="15">
-        <v>155000</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="22" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -5021,7 +4924,7 @@
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="22" t="e">
-        <f t="shared" ref="B259:B322" si="8">VLOOKUP(C259,Tabla_lampara,2,)</f>
+        <f t="shared" ref="B259:B311" si="8">VLOOKUP(C259,Tabla_lampara,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="C259" s="22"/>
@@ -5867,7 +5770,7 @@
       <c r="H311" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QsmVmLua3fQspZSmjseuV/Q6rPONAkVmxG1O6ZcTU3CjiYQbV9n7HF33CKqfAltSbypWa2iHLVWfHj6l/Qj0BQ==" saltValue="yyBMcEpKoNarVhhLBmNCug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="961ifTZ9si5zwVRzzf9XknugkDWl/pveCHJZX5DMCJMtyHVkP07tMTyfbPdcw5Fn8CBwh8ywhI8LfKSPlSOo8g==" saltValue="Ap+ta7iOWoAnVqeFJL827w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{5CBC77BE-A168-4ABE-8CE7-FE3C2C1EF142}">
       <formula1>Lista_Anno</formula1>
@@ -5917,7 +5820,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -5934,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G4" s="20">
         <v>1</v>
@@ -5951,7 +5854,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G5" s="20">
         <v>2</v>
@@ -5968,7 +5871,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G6" s="20">
         <v>3</v>
@@ -5985,7 +5888,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G7" s="20">
         <v>4</v>
@@ -6002,7 +5905,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G8" s="20">
         <v>5</v>

--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/1.5 Plantilla_Iluminacion_residencial.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/1.5 Plantilla_Iluminacion_residencial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESCRITORIO\Excls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CB2E67-0B74-47EB-8887-0E17520920F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A34EE7-007C-4DF8-8DAC-B8893348C918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{38F91648-8E81-4530-8820-7CE20EF243A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{38F91648-8E81-4530-8820-7CE20EF243A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Iluminación Residencial" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -107,9 +101,6 @@
     <t>Ahorrador (LFC)</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>Año en que se compraron lámparas. Seleccione de la lista desplegable</t>
   </si>
   <si>
@@ -135,6 +126,9 @@
   </si>
   <si>
     <t>Potencia de Lámpara Acción (W)</t>
+  </si>
+  <si>
+    <t>Otros</t>
   </si>
 </sst>
 </file>
@@ -313,9 +307,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -330,6 +321,9 @@
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,7 +642,7 @@
   <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,44 +664,44 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -721,13 +715,13 @@
       <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15">
         <v>10</v>
       </c>
-      <c r="E4" s="16">
-        <v>11</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>800000</v>
       </c>
     </row>
@@ -4120,7 +4114,7 @@
       <c r="F312" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9x8zpHtLNFwxjXwK8ixkpac18IDVobxx9fPD9ZE22Q3kgeOufdfoxZtbngvJv+sf49D84hIF36HKr5u6PUI70w==" saltValue="ZK0nh8dXdkDp90si9+mA7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3oralgusWXI3F4RiBNKV4UxMjCaHEtRapJq4lS0MGwzjwTctku8oZUAJQ+hsA4h5PQwjnNYfiP5NuV0VJJ/MsA==" saltValue="Bhw+X4Hg/bwH+ZaszeJJhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
   </mergeCells>
@@ -4158,7 +4152,7 @@
   <dimension ref="A3:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4262,7 +4256,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G8" s="7">
         <v>5</v>
